--- a/layout_tipo_12.xlsx
+++ b/layout_tipo_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -508,7 +508,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -532,7 +532,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -580,7 +580,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -628,7 +628,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -652,10 +652,34 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NFE12-FILLER</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>494</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TEXTO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
